--- a/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 млрсч пок зпф.xlsx
+++ b/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 млрсч пок зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,04,24 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\04,24\04,04,24 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F3974-015A-47DE-B1D5-0FE92BE718B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A6056-880E-4FEB-A4F2-410B3D5DF3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>заказ</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -780,13 +783,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1030,7 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1096,7 +1100,7 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1272,7 +1276,9 @@
       </c>
       <c r="AC6" s="17"/>
       <c r="AD6" s="14"/>
-      <c r="AE6" s="1"/>
+      <c r="AE6" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1363,7 +1369,9 @@
       </c>
       <c r="AC7" s="17"/>
       <c r="AD7" s="14"/>
-      <c r="AE7" s="1"/>
+      <c r="AE7" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1384,7 +1392,7 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1564,7 +1572,9 @@
       </c>
       <c r="AC9" s="17"/>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="1"/>
+      <c r="AE9" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1585,7 +1595,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1765,7 +1775,9 @@
       </c>
       <c r="AC11" s="17"/>
       <c r="AD11" s="14"/>
-      <c r="AE11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1856,7 +1868,9 @@
       </c>
       <c r="AC12" s="17"/>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -1877,7 +1891,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +2066,9 @@
       </c>
       <c r="AC14" s="17"/>
       <c r="AD14" s="14"/>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -2159,7 +2175,9 @@
         <f>AC15*AB15*G15</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -2250,7 +2268,9 @@
       </c>
       <c r="AC16" s="17"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -2341,7 +2361,9 @@
       </c>
       <c r="AC17" s="17"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="1"/>
+      <c r="AE17" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -2432,7 +2454,9 @@
       </c>
       <c r="AC18" s="17"/>
       <c r="AD18" s="14"/>
-      <c r="AE18" s="1"/>
+      <c r="AE18" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2523,7 +2547,9 @@
       </c>
       <c r="AC19" s="17"/>
       <c r="AD19" s="14"/>
-      <c r="AE19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2614,7 +2640,9 @@
       </c>
       <c r="AC20" s="17"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -2705,7 +2733,9 @@
       </c>
       <c r="AC21" s="17"/>
       <c r="AD21" s="14"/>
-      <c r="AE21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -2796,7 +2826,9 @@
       </c>
       <c r="AC22" s="17"/>
       <c r="AD22" s="14"/>
-      <c r="AE22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -2817,7 +2849,7 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3013,7 +3045,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="1"/>
+      <c r="AE24" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -3034,7 +3068,7 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -3214,7 +3248,9 @@
       </c>
       <c r="AC26" s="17"/>
       <c r="AD26" s="14"/>
-      <c r="AE26" s="1"/>
+      <c r="AE26" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -3305,7 +3341,9 @@
       </c>
       <c r="AC27" s="17"/>
       <c r="AD27" s="14"/>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -3326,7 +3364,7 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -3506,7 +3544,9 @@
       </c>
       <c r="AC29" s="17"/>
       <c r="AD29" s="14"/>
-      <c r="AE29" s="1"/>
+      <c r="AE29" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -3527,7 +3567,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -3634,7 +3674,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -3812,7 +3852,9 @@
       </c>
       <c r="AC32" s="17"/>
       <c r="AD32" s="14"/>
-      <c r="AE32" s="1"/>
+      <c r="AE32" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -3903,7 +3945,9 @@
       </c>
       <c r="AC33" s="17"/>
       <c r="AD33" s="14"/>
-      <c r="AE33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -3994,7 +4038,9 @@
       </c>
       <c r="AC34" s="17"/>
       <c r="AD34" s="14"/>
-      <c r="AE34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -4085,7 +4131,9 @@
       </c>
       <c r="AC35" s="17"/>
       <c r="AD35" s="14"/>
-      <c r="AE35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -4176,7 +4224,9 @@
       </c>
       <c r="AC36" s="17"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -4197,7 +4247,7 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -4372,7 +4422,9 @@
       </c>
       <c r="AC38" s="17"/>
       <c r="AD38" s="14"/>
-      <c r="AE38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -4463,7 +4515,9 @@
       </c>
       <c r="AC39" s="17"/>
       <c r="AD39" s="14"/>
-      <c r="AE39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -4554,7 +4608,9 @@
       </c>
       <c r="AC40" s="17"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="1"/>
+      <c r="AE40" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
@@ -4575,7 +4631,7 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -4752,7 +4808,9 @@
       </c>
       <c r="AC42" s="17"/>
       <c r="AD42" s="14"/>
-      <c r="AE42" s="1"/>
+      <c r="AE42" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
@@ -4843,7 +4901,9 @@
       </c>
       <c r="AC43" s="17"/>
       <c r="AD43" s="14"/>
-      <c r="AE43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -4864,7 +4924,7 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -4972,7 +5032,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -5080,7 +5140,7 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -5190,7 +5250,7 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -5300,7 +5360,7 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -5407,7 +5467,7 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
@@ -5515,7 +5575,7 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -5622,7 +5682,7 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
@@ -5729,7 +5789,7 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -5836,7 +5896,7 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
@@ -6016,7 +6076,9 @@
       </c>
       <c r="AC54" s="17"/>
       <c r="AD54" s="14"/>
-      <c r="AE54" s="1"/>
+      <c r="AE54" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -6107,7 +6169,9 @@
       </c>
       <c r="AC55" s="17"/>
       <c r="AD55" s="14"/>
-      <c r="AE55" s="1"/>
+      <c r="AE55" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -6198,7 +6262,9 @@
       </c>
       <c r="AC56" s="17"/>
       <c r="AD56" s="14"/>
-      <c r="AE56" s="1"/>
+      <c r="AE56" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -6289,7 +6355,9 @@
       </c>
       <c r="AC57" s="17"/>
       <c r="AD57" s="14"/>
-      <c r="AE57" s="1"/>
+      <c r="AE57" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -6399,7 +6467,9 @@
         <f t="shared" ref="AD58:AD59" si="17">AC58*AB58*G58</f>
         <v>84</v>
       </c>
-      <c r="AE58" s="1"/>
+      <c r="AE58" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -6420,7 +6490,7 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -6600,7 +6670,9 @@
       </c>
       <c r="AC60" s="17"/>
       <c r="AD60" s="14"/>
-      <c r="AE60" s="1"/>
+      <c r="AE60" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -6621,7 +6693,7 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>91</v>
       </c>
@@ -6801,7 +6873,9 @@
       </c>
       <c r="AC62" s="17"/>
       <c r="AD62" s="14"/>
-      <c r="AE62" s="1"/>
+      <c r="AE62" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -6892,7 +6966,9 @@
       </c>
       <c r="AC63" s="17"/>
       <c r="AD63" s="14"/>
-      <c r="AE63" s="1"/>
+      <c r="AE63" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -6983,7 +7059,9 @@
       </c>
       <c r="AC64" s="17"/>
       <c r="AD64" s="14"/>
-      <c r="AE64" s="1"/>
+      <c r="AE64" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -7074,7 +7152,9 @@
       </c>
       <c r="AC65" s="17"/>
       <c r="AD65" s="14"/>
-      <c r="AE65" s="1"/>
+      <c r="AE65" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -7165,7 +7245,9 @@
       </c>
       <c r="AC66" s="17"/>
       <c r="AD66" s="14"/>
-      <c r="AE66" s="1"/>
+      <c r="AE66" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -7186,7 +7268,7 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>97</v>
       </c>
@@ -7291,7 +7373,7 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>98</v>
       </c>
@@ -7487,7 +7569,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE69" s="1"/>
+      <c r="AE69" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -7508,7 +7592,7 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>100</v>
       </c>
@@ -7686,7 +7770,9 @@
       </c>
       <c r="AC71" s="17"/>
       <c r="AD71" s="14"/>
-      <c r="AE71" s="1"/>
+      <c r="AE71" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -30016,7 +30102,16 @@
       <c r="AX500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD71" xr:uid="{2F8ECC9A-22C5-45E9-9EA4-D457E66745D5}"/>
+  <autoFilter ref="A3:AD71" xr:uid="{2F8ECC9A-22C5-45E9-9EA4-D457E66745D5}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="0"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
